--- a/va_facility_data_2025-02-20/Fairview VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fairview%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fairview VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fairview%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2a9ec754541e408d84bc19197fe9fd91"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R617f97e22de444f5aa765cb42a229850"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra3aee2006871456580ae11610df460d7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7b922a18c1c14ab885054f30ec78540e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1a7977804cf443eea97b53bd8cf04e1b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R002878efd9714a82ada22f93402de085"/>
   </x:sheets>
 </x:workbook>
 </file>
